--- a/ERPReports/ERPReports/Areas/Reports/Templates/RMBreakdown_JONo_PONo_Template.xlsx
+++ b/ERPReports/ERPReports/Areas/Reports/Templates/RMBreakdown_JONo_PONo_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C# Projects\ERPREPORTS\ERPREPORTS\ERPReports\ERPReports\Areas\Reports\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C# Projects\ERPREPORTS\ERPReports\ERPReports\Areas\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142321BC-4CE8-4B58-B1A9-2E2BA776AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C555EDF-0A6D-4EF2-BC28-96D7BFF3B62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB645063-45E2-42D4-864B-13CD0856CC32}"/>
   </bookViews>
@@ -136,7 +136,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,10 +236,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,6 +249,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,8 +277,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,72 +602,74 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" customWidth="1"/>
-    <col min="20" max="25" width="20.7109375" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18" customWidth="1"/>
-    <col min="32" max="32" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.140625" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="8" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="8" customWidth="1"/>
+    <col min="20" max="25" width="20.7109375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18" style="8" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
@@ -656,193 +683,324 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="D21" s="11" t="s">
+      <c r="C21"/>
+      <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
     </row>
     <row r="22" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="9" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="10" t="s">
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="7" t="s">
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
     </row>
     <row r="23" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
